--- a/HONDURAS/Género/UNICEF/Maternidad y salud del recién nacido Unicef 2019 Honduras.xlsx
+++ b/HONDURAS/Género/UNICEF/Maternidad y salud del recién nacido Unicef 2019 Honduras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Género\UNICEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C9F84-5FE2-4CC7-9821-1D74E3CDD0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281FE9E-697F-491C-B16D-22CB5A06BC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CD03B3E8-D771-4672-81A9-470B62D58076}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>Espectativa de vida: mujeres 2018</t>
   </si>
@@ -683,13 +683,124 @@
   </si>
   <si>
     <t>Edad (años)</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + El método de recolección de datos para este indicador varía en las diferentes encuestas y puede afectar la comparabilidad de los estimados de cobertura. Para una explicación más detallada ver Nota General en el Data, página XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Los datos de mortalidad materna en la columna titulada "reportados" refieren a datos reportados por las autoridades nacionales. Los datos en la columna de "ajustados" refieren a  los estimados de mortalidad materna de Inter-Agencias de las Naciones Unidas en 2015. Periódicamente, el Grupo de Estimación de Mortalidad Materna de las Inter-Agencias de las Naciones Unidas (OMS, UNICEF, UNFPA, Banco Mundial y la División de Población de las Naciones Unidas) producde sets internacionalmente comparables de datos de mortalidad materna que reflejan el problema de la falta de reporte y la clasificación errónea de muertes maternales, incluyendo también estimados para países que no tienen datos. Por favor observe que dada una metodología en evolución,  estos valores no son comparables con los valores "ajustados" de reportes anteriores sobre mortalidad maternal. Series de tiempo comparables para los años 1990, 1995, 2000, 2005 y 2015 están disponibles en  &lt; http://data.unicef.org/maternal-health/maternal-mortality.html&gt;.  </t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores:</t>
+  </si>
+  <si>
+    <t>Espectativa de vida:  número de años que vivirían niñas recién nacidas si estuvieran sujetas a los riesgos de mortalidad prevalecientes en la sección transversal de la población al momento de nacer</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: porcentaje de mujeres (15-19 y 15-49 años) que satisfacen sus necesidades de planificación familiar con métodos modernos</t>
+  </si>
+  <si>
+    <t>Tasa de embarazo adolescente: número de nacimientos cada 1000 adolescentes mujeres de 15-19 años</t>
+  </si>
+  <si>
+    <t>Partos a los 18 años: porcentaje de mujeres de 20-24 años que dieron a luz antes de los 18 años. El indicador se refiere a las mujeres que tuvieron un nacimiento vivo en un período reciente, generalmente 2 años para MICS y 5 años para DHS</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (al menos una visita): porcentaje de mujeres (15-19 y 15-49 años) atendidas al menos una vez durante el embarazo por personal de salud experto (doctor, enfermera, matrona)</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (al menos cuatro visitas): porcentaje de mujeres (15-19 y 15-49 años) atendidas al menos cuatro veces durante el embarazo por cualquier proveedor</t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado: porcentaje de nacimientos de madres de 15-19 y 15-49 años, atendidas por personal de salud calificado (doctor, enfermera, matrona)</t>
+  </si>
+  <si>
+    <t>Parto en institución: porcentaje de mujeres de 15-49 años que dieron a luz en un establecimiento de salud</t>
+  </si>
+  <si>
+    <t>Cesárea: porcentaje de nacimientos por cesárea</t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para recién nacidos: porcentaje de los últimos nacidos vivos en los últimos 2 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para madres: Porcentaje de mujeres de 15 a 49 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto de su hijo vivo más reciente en los últimos 2 años. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Número de muertes maternas: número de muertes de mujeres por causas derivadas del embarazo</t>
+  </si>
+  <si>
+    <t>Proporción de mortalidad materna: Número de muertes de mujeres por causas relacionadas con el embarazo por cada 100.000 nacidos vivos durante el mismo período.</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: El riesgo de muerte materna a lo largo de la vida tiene en cuenta tanto la probabilidad de quedar embarazada como la probabilidad de morir como resultado de ese embarazo, acumulada a lo largo de los años reproductivos de la mujer. Los valores de riesgo de por vida se han redondeado de acuerdo con el siguiente esquema: &lt;1000, redondeado al 1 más cercano; y ≥ 1000, redondeado a la decena más cercana.</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Espectativa de vida:  United Nations Population Division, World Population Prospects 2019. Last update: July 2019.</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: United Nations, Department of Economic and Social Affairs, Population Division, United Nations Population Fund (UNFPA), based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS), Reproductive Health Surveys, other national surveys, and National Health Information Systems (HIS). Last Update: March 2019.</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: United Nations, Department of Economic and Social Affairs, Population Division, based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS), Reproductive Health Surveys, other national surveys, and National Health Information Systems (HIS). Last Update: February 2019.</t>
+  </si>
+  <si>
+    <t>Tasa de embarazo adolescente: United Nations Population Division, 2019. Last update: July 2019.</t>
+  </si>
+  <si>
+    <t>Partos a los 18 años: DHS, MICS and other national household surveys. Last update: May 2019.</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (al menos una visita): DHS, MICS and other national household surveys. Last update: May 2019.</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (al menos cuatro visitas, 15-19 años): International Center for Equity in Health, Federal University of Pelotas, Brazil, based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS) and other national surveys. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado: Joint UNICEF/WHO SBA database, based on DHS, MICS and other national household surveys as well as national administrative data. Last update: February 2019.</t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado, 15-19 años: International Center for Equity in Health, Federal University of Pelotas, Brazil, based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS) and other national surveys. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Parto en institución: DHS, MICS and other national household surveys. Last update: May 2019.</t>
+  </si>
+  <si>
+    <t>Cesárea: DHS, MICS and other national household surveys. Last update: May 2019.</t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para recién nacidos y madres: DHS, MICS and other national household surveys. Last update: May 2019.</t>
+  </si>
+  <si>
+    <t>Número de muertes maternas: United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, the World Bank and the United Nations Population Division). Last Update: September 2019.</t>
+  </si>
+  <si>
+    <t>Proporción de mortalidad materna: United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, the World Bank and the United Nations Population Division). Last Update: September 2019.</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, the World Bank and the United Nations Population Division). Last Update: September 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +852,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -756,12 +875,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -771,7 +903,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -816,6 +948,8 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1577,206 +1711,317 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0304D8B3-33B0-4F06-9B9E-E90AC2AAD8E8}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M8" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M9" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M10" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M11" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M12" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M13" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M14" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M15" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M16" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M17" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M18" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M19" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M20" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M21" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M22" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M25" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M26" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M27" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M28" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M29" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M30" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M31" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M32" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M33" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M34" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M35" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M36" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M37" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M38" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M39" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
